--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAttachType.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAttachType.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -164,43 +164,43 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>附件類別檔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TranNo,TypeItem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeItem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByTranNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TranNo = ,AND TypeItem =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TranNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByTypeItemFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>TxAttachType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件類別檔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TypeNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TypeNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TranNo,TypeItem</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TypeItem</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByTranNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TranNo = ,AND TypeItem =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">TranNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByTypeItemFirst</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -768,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -789,10 +789,10 @@
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="9"/>
@@ -817,7 +817,7 @@
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="14"/>
@@ -841,7 +841,7 @@
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="14"/>
@@ -898,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -936,7 +936,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
@@ -1038,9 +1038,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1064,21 +1064,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAttachType.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAttachType.xlsx
@@ -164,43 +164,43 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>TypeNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TranNo,TypeItem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeItem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByTranNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TranNo = ,AND TypeItem =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TranNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByTypeItemFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxAttachType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>附件類別檔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TypeNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TypeNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TranNo,TypeItem</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TypeItem</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByTranNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TranNo = ,AND TypeItem =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">TranNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByTypeItemFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TxAttachType</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -769,7 +769,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -789,10 +789,10 @@
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="9"/>
@@ -817,7 +817,7 @@
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="14"/>
@@ -841,7 +841,7 @@
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="14"/>
@@ -898,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -936,7 +936,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
@@ -1064,21 +1064,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
